--- a/table/Datas/__beans__.xlsx
+++ b/table/Datas/__beans__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\luban_examples\MiniTemplate\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\origingame\table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DD87AC-1C06-47DA-8356-D406D12FD20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A50BCC7-07E5-4C59-8889-ED86AA1DEA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="4680" windowWidth="29910" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -79,130 +79,191 @@
     <t>注释</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>道具id</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>道具数量</t>
+  </si>
+  <si>
+    <t>test.TestExcelBean1</t>
+  </si>
+  <si>
+    <t>这是个测试excel结构</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>最高品质</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>黑色的</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>蓝色的</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>最差品质</t>
+  </si>
+  <si>
+    <t>test.TestExcelBean2</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>test.Shape</t>
+  </si>
+  <si>
+    <t>test.Circle</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>圆</t>
+  </si>
+  <si>
+    <t>这是一个圆</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>半径</t>
+  </si>
+  <si>
+    <t>test.Rectangle</t>
+  </si>
+  <si>
+    <t>矩形</t>
+  </si>
+  <si>
+    <t>这是一个矩形</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>宽度</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>高度</t>
+  </si>
+  <si>
+    <t>alias</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段别名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>variants</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段变体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>item.ItemExchange</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttrData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttrType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttrValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>道具id</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>道具数量</t>
-  </si>
-  <si>
-    <t>test.TestExcelBean1</t>
-  </si>
-  <si>
-    <t>这是个测试excel结构</t>
-  </si>
-  <si>
-    <t>x1</t>
-  </si>
-  <si>
-    <t>最高品质</t>
-  </si>
-  <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>黑色的</t>
-  </si>
-  <si>
-    <t>x3</t>
-  </si>
-  <si>
-    <t>蓝色的</t>
-  </si>
-  <si>
-    <t>x4</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>最差品质</t>
-  </si>
-  <si>
-    <t>test.TestExcelBean2</t>
-  </si>
-  <si>
-    <t>y1</t>
-  </si>
-  <si>
-    <t>y2</t>
-  </si>
-  <si>
-    <t>y3</t>
-  </si>
-  <si>
-    <t>test.Shape</t>
-  </si>
-  <si>
-    <t>test.Circle</t>
-  </si>
-  <si>
-    <t>Shape</t>
-  </si>
-  <si>
-    <t>圆</t>
-  </si>
-  <si>
-    <t>这是一个圆</t>
-  </si>
-  <si>
-    <t>radius</t>
-  </si>
-  <si>
-    <t>半径</t>
-  </si>
-  <si>
-    <t>test.Rectangle</t>
-  </si>
-  <si>
-    <t>矩形</t>
-  </si>
-  <si>
-    <t>这是一个矩形</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>宽度</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>高度</t>
-  </si>
-  <si>
-    <t>alias</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段别名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>variants</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段变体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -295,11 +356,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -578,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -621,15 +682,15 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -638,8 +699,8 @@
       <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>56</v>
+      <c r="K2" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
@@ -653,8 +714,8 @@
       <c r="O2" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>58</v>
+      <c r="P2" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -670,8 +731,8 @@
       <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>57</v>
+      <c r="K3" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -682,187 +743,247 @@
       <c r="N3" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>21</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>22</v>
-      </c>
-      <c r="N4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
         <v>24</v>
-      </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" t="s">
+      <c r="J6" t="s">
         <v>27</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" t="s">
         <v>28</v>
-      </c>
-      <c r="L6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
         <v>30</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>31</v>
-      </c>
-      <c r="N7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s">
         <v>33</v>
-      </c>
-      <c r="L8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J9" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>36</v>
-      </c>
-      <c r="N9" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
         <v>38</v>
       </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" t="s">
-        <v>39</v>
-      </c>
       <c r="L10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" t="s">
         <v>31</v>
-      </c>
-      <c r="N11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
         <v>43</v>
       </c>
-      <c r="C14" t="s">
+      <c r="F14" t="s">
         <v>44</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>45</v>
       </c>
-      <c r="G14" t="s">
+      <c r="J14" t="s">
         <v>46</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" t="s">
         <v>47</v>
-      </c>
-      <c r="L14" t="s">
-        <v>36</v>
-      </c>
-      <c r="N14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
         <v>49</v>
       </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>50</v>
       </c>
-      <c r="G15" t="s">
+      <c r="J15" t="s">
         <v>51</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" t="s">
         <v>52</v>
       </c>
-      <c r="L15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N15" t="s">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+      <c r="J16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="J16" t="s">
+      <c r="L16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" t="s">
         <v>54</v>
       </c>
-      <c r="L16" t="s">
-        <v>36</v>
-      </c>
-      <c r="N16" t="s">
-        <v>55</v>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="J20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -871,6 +992,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>